--- a/results_plot.xlsx
+++ b/results_plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAIYAN\Desktop\School\EE4204\Lab Assignment\EE4204-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B252617E-33DD-420F-BAC9-F3DF34B2BF83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F25089E0-CF56-4A07-83F5-981EC7ACBA0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{191AFC81-AA1A-443B-8291-EBF960F4ACEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Time Taken (ms)</t>
   </si>
@@ -249,28 +249,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>160.29820000000001</c:v>
+                  <c:v>202.65140000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.063200000000002</c:v>
+                  <c:v>55.592999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.601500000000005</c:v>
+                  <c:v>34.544399999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.473000000000003</c:v>
+                  <c:v>20.104700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.079499999999999</c:v>
+                  <c:v>16.930699999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8552999999999997</c:v>
+                  <c:v>8.8104999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2698999999999998</c:v>
+                  <c:v>7.2943999999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.901399999999998</c:v>
+                  <c:v>6.4939999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -283,7 +283,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -457,7 +456,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-SG"/>
-                  <a:t>Time Taken (ms)</a:t>
+                  <a:t>Average Time Taken (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -729,28 +728,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>373.33728319999994</c:v>
+                  <c:v>296.33282740000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1508.3071777</c:v>
+                  <c:v>1097.0697082000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.7881712999997</c:v>
+                  <c:v>1752.2964232999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4087.6301055999998</c:v>
+                  <c:v>3135.1999268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5559.6569824000007</c:v>
+                  <c:v>4005.2785645000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6552.0897218</c:v>
+                  <c:v>7149.2963378999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8609.4370603999996</c:v>
+                  <c:v>8733.8240722999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7842.0970216000014</c:v>
+                  <c:v>9117.1448242000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,7 +762,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -937,7 +935,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-SG"/>
-                  <a:t>Data Rate</a:t>
+                  <a:t>Average Data Rate</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-SG" baseline="0"/>
@@ -1210,28 +1208,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>237.23070000000001</c:v>
+                  <c:v>229.60830000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.096000000000004</c:v>
+                  <c:v>51.567199999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.980199999999996</c:v>
+                  <c:v>28.187899999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.602399999999996</c:v>
+                  <c:v>14.8225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8511000000000006</c:v>
+                  <c:v>11.1416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9998000000000005</c:v>
+                  <c:v>8.4749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.898299999999999</c:v>
+                  <c:v>6.4027999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5742999999999991</c:v>
+                  <c:v>5.4274999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,7 +1420,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-SG"/>
-                  <a:t>Time</a:t>
+                  <a:t>Average Time</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-SG" baseline="0"/>
@@ -1670,28 +1668,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>252.56620479999998</c:v>
+                  <c:v>257.93378440000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1044.4910401</c:v>
+                  <c:v>1167.0749147000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1828.6737060999999</c:v>
+                  <c:v>2152.9207154000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3265.0305420000004</c:v>
+                  <c:v>4086.2204104000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6593.3611084000004</c:v>
+                  <c:v>5434.3199707000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8041.1645994999999</c:v>
+                  <c:v>7473.8729003999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8799.7061035999996</c:v>
+                  <c:v>9447.616894499999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11251.4331055</c:v>
+                  <c:v>11439.0291992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,7 +1875,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-SG"/>
-                  <a:t>Data</a:t>
+                  <a:t>Average Data</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-SG" baseline="0"/>
@@ -4679,10 +4677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBFDAD4-EA63-4E2B-84D9-1A85FA58320C}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="E1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4692,16 +4690,7 @@
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>2</v>
       </c>
@@ -4727,231 +4716,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>155.827</v>
-      </c>
-      <c r="C2">
-        <v>383.71398900000003</v>
-      </c>
+    <row r="2" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>155.827</v>
+        <v>194.41900000000001</v>
       </c>
       <c r="G2">
-        <v>383.71398900000003</v>
+        <v>307.54708900000003</v>
       </c>
       <c r="H2">
-        <v>231.76400000000001</v>
+        <v>233.60900000000001</v>
       </c>
       <c r="I2">
-        <v>257.99087500000002</v>
+        <v>255.95332300000001</v>
       </c>
       <c r="L2">
         <v>10</v>
       </c>
       <c r="M2">
         <f>AVERAGE(F2:F11)</f>
-        <v>160.29820000000001</v>
+        <v>202.65140000000002</v>
       </c>
       <c r="N2">
         <f>AVERAGE(G2:G11)</f>
-        <v>373.33728319999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>115.714</v>
-      </c>
-      <c r="C3">
-        <v>516.73089600000003</v>
-      </c>
+        <v>296.33282740000004</v>
+      </c>
+    </row>
+    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F3">
-        <v>171.27500000000001</v>
+        <v>241.01599999999999</v>
       </c>
       <c r="G3">
-        <v>349.105255</v>
+        <v>248.08725000000001</v>
       </c>
       <c r="H3">
-        <v>232.59700000000001</v>
+        <v>226.036</v>
       </c>
       <c r="I3">
-        <v>257.066956</v>
+        <v>263.52865600000001</v>
       </c>
       <c r="L3">
         <v>50</v>
       </c>
       <c r="M3">
         <f xml:space="preserve"> AVERAGE(F12:F21)</f>
-        <v>40.063200000000002</v>
+        <v>55.592999999999996</v>
       </c>
       <c r="N3">
         <f>AVERAGE(G12:G21)</f>
-        <v>1508.3071777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>64.805000000000007</v>
-      </c>
-      <c r="C4">
-        <v>922.66027799999995</v>
-      </c>
+        <v>1097.0697082000002</v>
+      </c>
+    </row>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F4">
-        <v>159.358</v>
+        <v>195.447</v>
       </c>
       <c r="G4">
-        <v>375.211792</v>
+        <v>305.92947400000003</v>
       </c>
       <c r="H4">
-        <v>232.185</v>
+        <v>232.15899999999999</v>
       </c>
       <c r="I4">
-        <v>257.52310199999999</v>
+        <v>257.551941</v>
       </c>
       <c r="L4">
         <v>100</v>
       </c>
       <c r="M4">
         <f>AVERAGE(F22:F31)</f>
-        <v>27.601500000000005</v>
+        <v>34.544399999999996</v>
       </c>
       <c r="N4">
         <f>AVERAGE(G22:G31)</f>
-        <v>2219.7881712999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>56.127000000000002</v>
-      </c>
-      <c r="C5">
-        <v>1065.3161620000001</v>
-      </c>
+        <v>1752.2964232999998</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F5">
-        <v>155.60300000000001</v>
+        <v>193.11</v>
       </c>
       <c r="G5">
-        <v>384.26638800000001</v>
+        <v>309.63180499999999</v>
       </c>
       <c r="H5">
-        <v>267.37</v>
+        <v>233.691</v>
       </c>
       <c r="I5">
-        <v>223.633926</v>
+        <v>255.86352500000001</v>
       </c>
       <c r="L5">
         <v>250</v>
       </c>
       <c r="M5">
         <f>AVERAGE(F32:F41)</f>
-        <v>15.473000000000003</v>
+        <v>20.104700000000001</v>
       </c>
       <c r="N5">
         <f>AVERAGE(G32:G41)</f>
-        <v>4087.6301055999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>51.438000000000002</v>
-      </c>
-      <c r="C6">
-        <v>1162.4285890000001</v>
-      </c>
+        <v>3135.1999268</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F6">
-        <v>159.809</v>
+        <v>193.60599999999999</v>
       </c>
       <c r="G6">
-        <v>374.15289300000001</v>
+        <v>308.83856200000002</v>
       </c>
       <c r="H6">
-        <v>229.553</v>
+        <v>225.708</v>
       </c>
       <c r="I6">
-        <v>260.47579999999999</v>
+        <v>264.91308600000002</v>
       </c>
       <c r="L6">
         <v>500</v>
       </c>
       <c r="M6">
         <f>AVERAGE(F42:F51)</f>
-        <v>12.079499999999999</v>
+        <v>16.930699999999998</v>
       </c>
       <c r="N6">
         <f>AVERAGE(G42:G51)</f>
-        <v>5559.6569824000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>35.47</v>
-      </c>
-      <c r="C7">
-        <v>1685.734375</v>
-      </c>
+        <v>4005.2785645000004</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F7">
-        <v>156.166</v>
+        <v>193.316</v>
       </c>
       <c r="G7">
-        <v>382.88104199999998</v>
+        <v>309.30187999999998</v>
       </c>
       <c r="H7">
-        <v>236.38200000000001</v>
+        <v>234.49</v>
       </c>
       <c r="I7">
-        <v>252.950729</v>
+        <v>254.99168399999999</v>
       </c>
       <c r="L7">
         <v>1000</v>
       </c>
       <c r="M7">
         <f>AVERAGE(F52:F61)</f>
-        <v>9.8552999999999997</v>
+        <v>8.8104999999999993</v>
       </c>
       <c r="N7">
         <f>AVERAGE(G52:G61)</f>
-        <v>6552.0897218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>32.506999999999998</v>
-      </c>
-      <c r="C8">
-        <v>1839.388428</v>
-      </c>
+        <v>7149.2963378999993</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F8">
-        <v>157.66300000000001</v>
+        <v>196.71100000000001</v>
       </c>
       <c r="G8">
-        <v>379.24560500000001</v>
+        <v>303.963864</v>
       </c>
       <c r="H8">
-        <v>246.96700000000001</v>
+        <v>224.17500000000001</v>
       </c>
       <c r="I8">
         <v>242.10926799999999</v>
@@ -4961,278 +4887,179 @@
       </c>
       <c r="M8">
         <f>AVERAGE(F62:F71)</f>
-        <v>7.2698999999999998</v>
+        <v>7.2943999999999987</v>
       </c>
       <c r="N8">
         <f>AVERAGE(G62:G71)</f>
-        <v>8609.4370603999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <v>44.802</v>
-      </c>
-      <c r="C9">
-        <v>1334.6057129999999</v>
-      </c>
+        <v>8733.8240722999999</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F9">
-        <v>158.10400000000001</v>
+        <v>205.33600000000001</v>
       </c>
       <c r="G9">
-        <v>378.18777499999999</v>
+        <v>291.19589200000001</v>
       </c>
       <c r="H9">
-        <v>234.39400000000001</v>
+        <v>234.077</v>
       </c>
       <c r="I9">
-        <v>255.09612999999999</v>
+        <v>255.44158899999999</v>
       </c>
       <c r="L9">
         <v>10000</v>
       </c>
       <c r="M9">
         <f>AVERAGE(F72:F81)</f>
-        <v>7.901399999999998</v>
+        <v>6.4939999999999998</v>
       </c>
       <c r="N9">
         <f>AVERAGE(G72:G81)</f>
-        <v>7842.0970216000014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <v>33.149000000000001</v>
-      </c>
-      <c r="C10">
-        <v>1803.764893</v>
-      </c>
+        <v>9117.1448242000006</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F10">
-        <v>163.489</v>
+        <v>200.71199999999999</v>
       </c>
       <c r="G10">
-        <v>365.73101800000001</v>
+        <v>297.904449</v>
       </c>
       <c r="H10">
-        <v>227.17699999999999</v>
+        <v>225.39599999999999</v>
       </c>
       <c r="I10">
-        <v>263.20004299999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>20.966000000000001</v>
-      </c>
-      <c r="C11">
-        <v>2851.9030760000001</v>
-      </c>
+        <v>265.279785</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F11">
-        <v>165.68799999999999</v>
+        <v>212.84100000000001</v>
       </c>
       <c r="G11">
-        <v>360.87707499999999</v>
+        <v>280.92800899999997</v>
       </c>
       <c r="H11">
-        <v>233.91800000000001</v>
+        <v>226.74199999999999</v>
       </c>
       <c r="I11">
-        <v>255.615219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>110</v>
-      </c>
-      <c r="B12">
-        <v>29.677</v>
-      </c>
-      <c r="C12">
-        <v>2014.7926030000001</v>
-      </c>
+        <v>263.70498700000002</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>50</v>
       </c>
       <c r="F12">
-        <v>51.438000000000002</v>
+        <v>52.408999999999999</v>
       </c>
       <c r="G12">
-        <v>1162.4285890000001</v>
+        <v>1140.891846</v>
       </c>
       <c r="H12">
-        <v>61.499000000000002</v>
+        <v>48.067999999999998</v>
       </c>
       <c r="I12">
-        <v>972.25970500000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>120</v>
-      </c>
-      <c r="B13">
-        <v>19.228999999999999</v>
-      </c>
-      <c r="C13">
-        <v>3109.5219729999999</v>
-      </c>
+        <v>1243.925293</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F13">
-        <v>43.945</v>
+        <v>49.783999999999999</v>
       </c>
       <c r="G13">
-        <v>1360.632568</v>
+        <v>1201.048462</v>
       </c>
       <c r="H13">
-        <v>80.066000000000003</v>
+        <v>54.329000000000001</v>
       </c>
       <c r="I13">
-        <v>746.79638699999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>130</v>
-      </c>
-      <c r="B14">
-        <v>19.526</v>
-      </c>
-      <c r="C14">
-        <v>3062.2248540000001</v>
-      </c>
+        <v>1100.57251</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F14">
-        <v>40.598999999999997</v>
+        <v>49.384999999999998</v>
       </c>
       <c r="G14">
-        <v>1472.770264</v>
+        <v>1210.7523189999999</v>
       </c>
       <c r="H14">
-        <v>54.744999999999997</v>
+        <v>57.872</v>
       </c>
       <c r="I14">
-        <v>1092.209351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>140</v>
-      </c>
-      <c r="B15">
-        <v>16.577999999999999</v>
-      </c>
-      <c r="C15">
-        <v>3606.7683109999998</v>
-      </c>
+        <v>1033.19397</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F15">
-        <v>39.466999999999999</v>
+        <v>52.158999999999999</v>
       </c>
       <c r="G15">
-        <v>1515.012573</v>
+        <v>1146.360107</v>
       </c>
       <c r="H15">
-        <v>58.701000000000001</v>
+        <v>54.292999999999999</v>
       </c>
       <c r="I15">
-        <v>1018.602722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>150</v>
-      </c>
-      <c r="B16">
-        <v>16.263999999999999</v>
-      </c>
-      <c r="C16">
-        <v>3676.4018550000001</v>
-      </c>
+        <v>1101.302246</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F16">
-        <v>37.634999999999998</v>
+        <v>52.235999999999997</v>
       </c>
       <c r="G16">
-        <v>1588.7604980000001</v>
+        <v>1144.670288</v>
       </c>
       <c r="H16">
-        <v>49.984000000000002</v>
+        <v>54.445</v>
       </c>
       <c r="I16">
-        <v>1196.242798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>160</v>
-      </c>
-      <c r="B17">
-        <v>17.881</v>
-      </c>
-      <c r="C17">
-        <v>3343.9404300000001</v>
-      </c>
+        <v>1098.227539</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F17">
-        <v>37.707999999999998</v>
+        <v>81.483000000000004</v>
       </c>
       <c r="G17">
-        <v>1585.684692</v>
+        <v>733.80950900000005</v>
       </c>
       <c r="H17">
-        <v>55.258000000000003</v>
+        <v>55.289000000000001</v>
       </c>
       <c r="I17">
         <v>1082.0695800000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>170</v>
-      </c>
-      <c r="B18">
-        <v>21.457999999999998</v>
-      </c>
-      <c r="C18">
-        <v>2786.5131839999999</v>
-      </c>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F18">
-        <v>39.22</v>
+        <v>50.304000000000002</v>
       </c>
       <c r="G18">
-        <v>1524.553711</v>
+        <v>1188.633057</v>
       </c>
       <c r="H18">
-        <v>57.262</v>
+        <v>44.116</v>
       </c>
       <c r="I18">
-        <v>1044.200317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>180</v>
-      </c>
-      <c r="B19">
-        <v>20.355</v>
-      </c>
-      <c r="C19">
-        <v>2937.5092770000001</v>
-      </c>
+        <v>1355.3585210000001</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F19">
-        <v>36.585999999999999</v>
+        <v>58.536999999999999</v>
       </c>
       <c r="G19">
-        <v>1634.313721</v>
+        <v>1021.456543</v>
       </c>
       <c r="H19">
-        <v>54.222000000000001</v>
+        <v>48.430999999999997</v>
       </c>
       <c r="I19">
-        <v>1102.744263</v>
+        <v>1234.601807</v>
       </c>
       <c r="L19" t="s">
         <v>2</v>
@@ -5244,98 +5071,71 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>190</v>
-      </c>
-      <c r="B20">
-        <v>18.125</v>
-      </c>
-      <c r="C20">
-        <v>3298.9240719999998</v>
-      </c>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F20">
-        <v>38.896000000000001</v>
+        <v>56.256</v>
       </c>
       <c r="G20">
-        <v>1537.2531739999999</v>
+        <v>1062.8732910000001</v>
       </c>
       <c r="H20">
-        <v>54.420999999999999</v>
+        <v>48.21</v>
       </c>
       <c r="I20">
-        <v>1098.711914</v>
+        <v>1240.2613530000001</v>
       </c>
       <c r="L20">
         <v>10</v>
       </c>
       <c r="M20">
         <f>AVERAGE(H2:H11)</f>
-        <v>237.23070000000001</v>
+        <v>229.60830000000001</v>
       </c>
       <c r="N20">
         <f>AVERAGE(I2:I11)</f>
-        <v>252.56620479999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>200</v>
-      </c>
-      <c r="B21">
-        <v>10.327</v>
-      </c>
-      <c r="C21">
-        <v>5789.9682620000003</v>
-      </c>
+        <v>257.93378440000004</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F21">
-        <v>35.137999999999998</v>
+        <v>53.377000000000002</v>
       </c>
       <c r="G21">
-        <v>1701.661987</v>
+        <v>1120.2016599999999</v>
       </c>
       <c r="H21">
-        <v>54.802</v>
+        <v>50.619</v>
       </c>
       <c r="I21">
-        <v>1091.0733640000001</v>
+        <v>1181.236328</v>
       </c>
       <c r="L21">
         <v>50</v>
       </c>
       <c r="M21">
         <f>AVERAGE(H12:H21)</f>
-        <v>58.096000000000004</v>
+        <v>51.567199999999993</v>
       </c>
       <c r="N21">
         <f>AVERAGE(I12:I21)</f>
-        <v>1044.4910401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>250</v>
-      </c>
-      <c r="B22">
-        <v>13.637</v>
-      </c>
-      <c r="C22">
-        <v>4384.6152339999999</v>
-      </c>
+        <v>1167.0749147000001</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>100</v>
       </c>
       <c r="F22">
-        <v>20.966000000000001</v>
+        <v>29.035</v>
       </c>
       <c r="G22">
-        <v>2851.9030760000001</v>
+        <v>2059.3422850000002</v>
       </c>
       <c r="H22">
-        <v>30.052</v>
+        <v>24.76</v>
       </c>
       <c r="I22">
-        <v>1989.651245</v>
+        <v>2414.9030760000001</v>
       </c>
       <c r="J22">
         <v>9.5579999999999998</v>
@@ -5348,34 +5148,25 @@
       </c>
       <c r="M22">
         <f>AVERAGE(H22:H31)</f>
-        <v>32.980199999999996</v>
+        <v>28.187899999999996</v>
       </c>
       <c r="N22">
         <f>AVERAGE(I22:I31)</f>
-        <v>1828.6737060999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>300</v>
-      </c>
-      <c r="B23">
-        <v>10.708</v>
-      </c>
-      <c r="C23">
-        <v>5583.9560549999997</v>
-      </c>
+        <v>2152.9207154000001</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F23">
-        <v>26.146000000000001</v>
+        <v>32.881999999999998</v>
       </c>
       <c r="G23">
-        <v>2286.8889159999999</v>
+        <v>1818.411255</v>
       </c>
       <c r="H23">
-        <v>33.881999999999998</v>
+        <v>31.038</v>
       </c>
       <c r="I23">
-        <v>1764.7423100000001</v>
+        <v>1926.4449460000001</v>
       </c>
       <c r="J23">
         <v>15.837</v>
@@ -5388,34 +5179,25 @@
       </c>
       <c r="M23">
         <f>AVERAGE(H32:H41)</f>
-        <v>18.602399999999996</v>
+        <v>14.8225</v>
       </c>
       <c r="N23">
         <f>AVERAGE(I32:I41)</f>
-        <v>3265.0305420000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>350</v>
-      </c>
-      <c r="B24">
-        <v>8.5990000000000002</v>
-      </c>
-      <c r="C24">
-        <v>6953.4829099999997</v>
-      </c>
+        <v>4086.2204104000002</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F24">
-        <v>28.242999999999999</v>
+        <v>36.692</v>
       </c>
       <c r="G24">
-        <v>2117.0910640000002</v>
+        <v>1629.592163</v>
       </c>
       <c r="H24">
-        <v>28.065999999999999</v>
+        <v>32.607999999999997</v>
       </c>
       <c r="I24">
-        <v>2130.4426269999999</v>
+        <v>1833.6910399999999</v>
       </c>
       <c r="J24">
         <v>7.1029999999999998</v>
@@ -5428,34 +5210,25 @@
       </c>
       <c r="M24">
         <f>AVERAGE(H42:H51)</f>
-        <v>9.8511000000000006</v>
+        <v>11.1416</v>
       </c>
       <c r="N24">
         <f>AVERAGE(I42:I51)</f>
-        <v>6593.3611084000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>400</v>
-      </c>
-      <c r="B25">
-        <v>16.196000000000002</v>
-      </c>
-      <c r="C25">
-        <v>3691.8376459999999</v>
-      </c>
+        <v>5434.3199707000003</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F25">
-        <v>25.306000000000001</v>
+        <v>37.079000000000001</v>
       </c>
       <c r="G25">
-        <v>2362.7993160000001</v>
+        <v>1612.5839840000001</v>
       </c>
       <c r="H25">
-        <v>31.265000000000001</v>
+        <v>24.326000000000001</v>
       </c>
       <c r="I25">
-        <v>1912.4580080000001</v>
+        <v>2457.9873050000001</v>
       </c>
       <c r="J25">
         <v>10.547000000000001</v>
@@ -5468,34 +5241,25 @@
       </c>
       <c r="M25">
         <f>AVERAGE(H52:H61)</f>
-        <v>7.9998000000000005</v>
+        <v>8.4749999999999996</v>
       </c>
       <c r="N25">
         <f>AVERAGE(I52:I61)</f>
-        <v>8041.1645994999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>450</v>
-      </c>
-      <c r="B26">
-        <v>9.1720000000000006</v>
-      </c>
-      <c r="C26">
-        <v>6519.080078</v>
-      </c>
+        <v>7473.8729003999997</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F26">
-        <v>30.959</v>
+        <v>29.103000000000002</v>
       </c>
       <c r="G26">
-        <v>1931.3608400000001</v>
+        <v>2054.530518</v>
       </c>
       <c r="H26">
-        <v>37.966999999999999</v>
+        <v>23.686</v>
       </c>
       <c r="I26">
-        <v>1574.8676760000001</v>
+        <v>2524.4025879999999</v>
       </c>
       <c r="J26">
         <v>17.323</v>
@@ -5508,31 +5272,22 @@
       </c>
       <c r="M26">
         <f>AVERAGE(H62:H71)</f>
-        <v>6.898299999999999</v>
+        <v>6.4027999999999992</v>
       </c>
       <c r="N26">
         <f>AVERAGE(I62:I71)</f>
-        <v>8799.7061035999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>500</v>
-      </c>
-      <c r="B27">
-        <v>12.706</v>
-      </c>
-      <c r="C27">
-        <v>4705.8867190000001</v>
-      </c>
+        <v>9447.616894499999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F27">
-        <v>29.009</v>
+        <v>36.505000000000003</v>
       </c>
       <c r="G27">
-        <v>2061.1877439999998</v>
+        <v>1637.9399410000001</v>
       </c>
       <c r="H27">
-        <v>29.263999999999999</v>
+        <v>30.016999999999999</v>
       </c>
       <c r="I27">
         <v>2043.227173</v>
@@ -5548,34 +5303,25 @@
       </c>
       <c r="M27">
         <f>AVERAGE(H72:H81)</f>
-        <v>7.5742999999999991</v>
+        <v>5.4274999999999993</v>
       </c>
       <c r="N27">
         <f>AVERAGE(I72:I81)</f>
-        <v>11251.4331055</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>600</v>
-      </c>
-      <c r="B28">
-        <v>8.9269999999999996</v>
-      </c>
-      <c r="C28">
-        <v>6697.9946289999998</v>
-      </c>
+        <v>11439.0291992</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F28">
-        <v>22.408999999999999</v>
+        <v>40.502000000000002</v>
       </c>
       <c r="G28">
-        <v>2668.2583009999998</v>
+        <v>1476.2974850000001</v>
       </c>
       <c r="H28">
-        <v>35.049999999999997</v>
+        <v>29.004000000000001</v>
       </c>
       <c r="I28">
-        <v>1705.934448</v>
+        <v>2061.5432129999999</v>
       </c>
       <c r="J28">
         <v>16.271000000000001</v>
@@ -5584,27 +5330,18 @@
         <v>3674.8203119999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>700</v>
-      </c>
-      <c r="B29">
-        <v>8.8209999999999997</v>
-      </c>
-      <c r="C29">
-        <v>6778.4829099999997</v>
-      </c>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F29">
-        <v>25.882000000000001</v>
+        <v>30.882000000000001</v>
       </c>
       <c r="G29">
-        <v>2310.2155760000001</v>
+        <v>1936.1763920000001</v>
       </c>
       <c r="H29">
-        <v>34.847000000000001</v>
+        <v>29.527999999999999</v>
       </c>
       <c r="I29">
-        <v>1715.872192</v>
+        <v>2024.959351</v>
       </c>
       <c r="J29">
         <v>10.452</v>
@@ -5613,27 +5350,18 @@
         <v>5720.7236329999996</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>800</v>
-      </c>
-      <c r="B30">
-        <v>16.613</v>
-      </c>
-      <c r="C30">
-        <v>3599.1691890000002</v>
-      </c>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F30">
-        <v>29.864000000000001</v>
+        <v>34.268000000000001</v>
       </c>
       <c r="G30">
-        <v>2002.176514</v>
+        <v>1744.8638920000001</v>
       </c>
       <c r="H30">
-        <v>33.567</v>
+        <v>25.707999999999998</v>
       </c>
       <c r="I30">
-        <v>1781.3029790000001</v>
+        <v>2325.851807</v>
       </c>
       <c r="J30">
         <v>17.393000000000001</v>
@@ -5642,27 +5370,18 @@
         <v>3437.7624510000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>900</v>
-      </c>
-      <c r="B31">
-        <v>9.6620000000000008</v>
-      </c>
-      <c r="C31">
-        <v>6188.470703</v>
-      </c>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F31">
-        <v>37.231000000000002</v>
+        <v>38.496000000000002</v>
       </c>
       <c r="G31">
-        <v>1606.000366</v>
+        <v>1553.226318</v>
       </c>
       <c r="H31">
-        <v>35.841999999999999</v>
+        <v>31.204000000000001</v>
       </c>
       <c r="I31">
-        <v>1668.2384030000001</v>
+        <v>1916.196655</v>
       </c>
       <c r="J31">
         <v>9.1980000000000004</v>
@@ -5671,380 +5390,290 @@
         <v>6500.6523440000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1000</v>
-      </c>
-      <c r="B32">
-        <v>14.085000000000001</v>
-      </c>
-      <c r="C32">
-        <v>4245.154297</v>
-      </c>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>250</v>
       </c>
       <c r="F32">
-        <v>13.637</v>
+        <v>18.600999999999999</v>
       </c>
       <c r="G32">
-        <v>4384.6152339999999</v>
+        <v>3214.5046390000002</v>
       </c>
       <c r="H32">
-        <v>16.393000000000001</v>
+        <v>17.803000000000001</v>
       </c>
       <c r="I32">
-        <v>3647.4716800000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2000</v>
-      </c>
-      <c r="B33">
-        <v>7.3179999999999996</v>
-      </c>
-      <c r="C33">
-        <v>8170.6752930000002</v>
-      </c>
+        <v>3358.5913089999999</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F33">
-        <v>16.792000000000002</v>
+        <v>20.472000000000001</v>
       </c>
       <c r="G33">
-        <v>3560.8027339999999</v>
+        <v>2920.7209469999998</v>
       </c>
       <c r="H33">
-        <v>17.231000000000002</v>
+        <v>15.881</v>
       </c>
       <c r="I33">
-        <v>3470.0827640000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3000</v>
-      </c>
-      <c r="B34">
-        <v>7.3570000000000002</v>
-      </c>
-      <c r="C34">
-        <v>8127.3618159999996</v>
-      </c>
+        <v>3765.0651859999998</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F34">
-        <v>9.593</v>
+        <v>20.536999999999999</v>
       </c>
       <c r="G34">
-        <v>6232.9819340000004</v>
+        <v>2911.476807</v>
       </c>
       <c r="H34">
-        <v>16.058</v>
+        <v>12.701000000000001</v>
       </c>
       <c r="I34">
-        <v>3723.564453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4000</v>
-      </c>
-      <c r="B35">
-        <v>4.8280000000000003</v>
-      </c>
-      <c r="C35">
-        <v>12384.630859000001</v>
-      </c>
+        <v>4707.7392579999996</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F35">
-        <v>11.909000000000001</v>
+        <v>21.577000000000002</v>
       </c>
       <c r="G35">
-        <v>5020.8242190000001</v>
+        <v>2771.1452640000002</v>
       </c>
       <c r="H35">
-        <v>16.536000000000001</v>
+        <v>13.494999999999999</v>
       </c>
       <c r="I35">
-        <v>3615.9289549999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>5000</v>
-      </c>
-      <c r="B36">
-        <v>5.3070000000000004</v>
-      </c>
-      <c r="C36">
-        <v>11266.817383</v>
-      </c>
+        <v>4430.751953</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F36">
-        <v>24.151</v>
+        <v>21.552</v>
       </c>
       <c r="G36">
-        <v>2475.798096</v>
+        <v>2774.3596189999998</v>
       </c>
       <c r="H36">
-        <v>18.263999999999999</v>
+        <v>12.42</v>
       </c>
       <c r="I36">
-        <v>3273.8173830000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>6000</v>
-      </c>
-      <c r="B37">
-        <v>6.1779999999999999</v>
-      </c>
-      <c r="C37">
-        <v>9678.375</v>
-      </c>
+        <v>4814.2509769999997</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F37">
-        <v>16.927</v>
+        <v>25.134</v>
       </c>
       <c r="G37">
-        <v>3532.4038089999999</v>
+        <v>2378.96875</v>
       </c>
       <c r="H37">
-        <v>18.623000000000001</v>
+        <v>17.132999999999999</v>
       </c>
       <c r="I37">
-        <v>3210.7072750000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>7000</v>
-      </c>
-      <c r="B38">
-        <v>5.9139999999999997</v>
-      </c>
-      <c r="C38">
-        <v>10110.416015999999</v>
-      </c>
+        <v>3489.931885</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F38">
-        <v>17.376999999999999</v>
+        <v>21.465</v>
       </c>
       <c r="G38">
-        <v>3440.92749</v>
+        <v>2785.6044919999999</v>
       </c>
       <c r="H38">
-        <v>17.71</v>
+        <v>14.372999999999999</v>
       </c>
       <c r="I38">
-        <v>3376.2282709999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>8000</v>
-      </c>
-      <c r="B39">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="C39">
-        <v>11910.956055000001</v>
-      </c>
+        <v>4160.091797</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F39">
-        <v>16.626000000000001</v>
+        <v>20.931000000000001</v>
       </c>
       <c r="G39">
-        <v>3596.3552549999999</v>
+        <v>2856.671875</v>
       </c>
       <c r="H39">
-        <v>21.478999999999999</v>
+        <v>14.292</v>
       </c>
       <c r="I39">
-        <v>2783.788818</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>9000</v>
-      </c>
-      <c r="B40">
-        <v>6.55</v>
-      </c>
-      <c r="C40">
-        <v>9128.7021480000003</v>
-      </c>
+        <v>4183.6694340000004</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F40">
-        <v>14.11</v>
+        <v>10.268000000000001</v>
       </c>
       <c r="G40">
-        <v>4237.6328119999998</v>
+        <v>5823.2373049999997</v>
       </c>
       <c r="H40">
-        <v>24.481000000000002</v>
+        <v>15.68</v>
       </c>
       <c r="I40">
-        <v>2442.4245609999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>10000</v>
-      </c>
-      <c r="B41">
-        <v>7.4550000000000001</v>
-      </c>
-      <c r="C41">
-        <v>8020.5234380000002</v>
-      </c>
+        <v>3813.3291020000001</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F41">
-        <v>13.608000000000001</v>
+        <v>20.51</v>
       </c>
       <c r="G41">
-        <v>4393.9594729999999</v>
+        <v>2915.3095699999999</v>
       </c>
       <c r="H41">
-        <v>19.248999999999999</v>
+        <v>14.446999999999999</v>
       </c>
       <c r="I41">
-        <v>3106.29126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4138.783203</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>500</v>
       </c>
       <c r="F42">
-        <v>12.706</v>
+        <v>13.544</v>
       </c>
       <c r="G42">
-        <v>4705.8867190000001</v>
+        <v>4414.7226559999999</v>
       </c>
       <c r="H42">
-        <v>8.7680000000000007</v>
+        <v>9.9580000000000002</v>
       </c>
       <c r="I42">
-        <v>6819.4575199999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6004.5190430000002</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F43">
-        <v>16.443000000000001</v>
+        <v>17.960999999999999</v>
       </c>
       <c r="G43">
-        <v>3636.3801269999999</v>
+        <v>3329.046143</v>
       </c>
       <c r="H43">
-        <v>6.5019999999999998</v>
+        <v>11.541</v>
       </c>
       <c r="I43">
-        <v>9196.09375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5180.919922</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F44">
-        <v>14.532</v>
+        <v>18.45</v>
       </c>
       <c r="G44">
-        <v>4114.5747069999998</v>
+        <v>3240.8129880000001</v>
       </c>
       <c r="H44">
-        <v>14.084</v>
+        <v>11.092000000000001</v>
       </c>
       <c r="I44">
-        <v>4245.4560549999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5290.6420900000003</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F45">
-        <v>5.8109999999999999</v>
+        <v>15.411</v>
       </c>
       <c r="G45">
-        <v>10289.623046999999</v>
+        <v>3879.8908689999998</v>
       </c>
       <c r="H45">
-        <v>16.471</v>
+        <v>10.9</v>
       </c>
       <c r="I45">
-        <v>3630.1984859999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5485.5966799999997</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F46">
-        <v>12.363</v>
+        <v>7.0979999999999999</v>
       </c>
       <c r="G46">
-        <v>4836.4472660000001</v>
+        <v>8423.921875</v>
       </c>
       <c r="H46">
-        <v>6.4829999999999997</v>
+        <v>12.827</v>
       </c>
       <c r="I46">
-        <v>9223.0449219999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4661.4956050000001</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F47">
-        <v>9.7370000000000001</v>
+        <v>12.92</v>
       </c>
       <c r="G47">
-        <v>6140.8027339999999</v>
+        <v>4627.9409180000002</v>
       </c>
       <c r="H47">
-        <v>9.43</v>
+        <v>9.391</v>
       </c>
       <c r="I47">
-        <v>6340.720703</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6367.0537109999996</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F48">
-        <v>16.116</v>
+        <v>16.192</v>
       </c>
       <c r="G48">
-        <v>3710.1640619999998</v>
+        <v>3692.7497560000002</v>
       </c>
       <c r="H48">
-        <v>7.5810000000000004</v>
+        <v>11.102</v>
       </c>
       <c r="I48">
-        <v>7887.2182620000003</v>
+        <v>5385.7861329999996</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F49">
-        <v>16.149000000000001</v>
+        <v>30.814</v>
       </c>
       <c r="G49">
-        <v>3702.5822750000002</v>
+        <v>1940.4492190000001</v>
       </c>
       <c r="H49">
-        <v>9.59</v>
+        <v>10.798</v>
       </c>
       <c r="I49">
-        <v>6234.9321289999998</v>
+        <v>5537.4140619999998</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F50">
-        <v>9.7669999999999995</v>
+        <v>17.323</v>
       </c>
       <c r="G50">
-        <v>6121.9409180000002</v>
+        <v>3451.6538089999999</v>
       </c>
       <c r="H50">
-        <v>8.7029999999999994</v>
+        <v>14.186</v>
       </c>
       <c r="I50">
-        <v>6870.3896480000003</v>
+        <v>4214.9301759999998</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F51">
-        <v>7.1710000000000003</v>
+        <v>19.594000000000001</v>
       </c>
       <c r="G51">
-        <v>8338.1679690000001</v>
+        <v>3051.5974120000001</v>
       </c>
       <c r="H51">
-        <v>10.898999999999999</v>
+        <v>9.6210000000000004</v>
       </c>
       <c r="I51">
-        <v>5486.0996089999999</v>
+        <v>6214.8422849999997</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
@@ -6052,142 +5681,142 @@
         <v>1000</v>
       </c>
       <c r="F52">
-        <v>14.085000000000001</v>
+        <v>8.3409999999999993</v>
       </c>
       <c r="G52">
-        <v>4245.154297</v>
+        <v>7168.5654299999997</v>
       </c>
       <c r="H52">
-        <v>9.6940000000000008</v>
+        <v>7.6820000000000004</v>
       </c>
       <c r="I52">
-        <v>6168.0419920000004</v>
+        <v>7783.5195309999999</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F53">
-        <v>6.8369999999999997</v>
+        <v>6.556</v>
       </c>
       <c r="G53">
-        <v>8745.5029300000006</v>
+        <v>9120.3476559999999</v>
       </c>
       <c r="H53">
-        <v>6.891</v>
+        <v>6.4379999999999997</v>
       </c>
       <c r="I53">
-        <v>8676.9707030000009</v>
+        <v>9287.5117190000001</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F54">
-        <v>7.6619999999999999</v>
+        <v>6.4530000000000003</v>
       </c>
       <c r="G54">
-        <v>7803.8369140000004</v>
+        <v>9265.9228519999997</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>8.6509999999999998</v>
       </c>
       <c r="I54">
-        <v>11958.599609000001</v>
+        <v>6911.6865230000003</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F55">
-        <v>9.4290000000000003</v>
+        <v>9.2889999999999997</v>
       </c>
       <c r="G55">
-        <v>6341.3935549999997</v>
+        <v>6436.96875</v>
       </c>
       <c r="H55">
-        <v>7.9779999999999998</v>
+        <v>6.22</v>
       </c>
       <c r="I55">
-        <v>7494.7353519999997</v>
+        <v>9613.0224610000005</v>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F56">
-        <v>8.6630000000000003</v>
+        <v>11.877000000000001</v>
       </c>
       <c r="G56">
-        <v>6902.1123049999997</v>
+        <v>5034.3520509999998</v>
       </c>
       <c r="H56">
-        <v>9.6660000000000004</v>
+        <v>8.2949999999999999</v>
       </c>
       <c r="I56">
-        <v>6185.9091799999997</v>
+        <v>7208.3183589999999</v>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F57">
-        <v>8.4220000000000006</v>
+        <v>8.8490000000000002</v>
       </c>
       <c r="G57">
-        <v>7099.6201170000004</v>
+        <v>6757.0346680000002</v>
       </c>
       <c r="H57">
-        <v>8.7050000000000001</v>
+        <v>12.058999999999999</v>
       </c>
       <c r="I57">
-        <v>6868.8110349999997</v>
+        <v>4958.3710940000001</v>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F58">
-        <v>6.6509999999999998</v>
+        <v>6.6829999999999998</v>
       </c>
       <c r="G58">
-        <v>8990.0761719999991</v>
+        <v>8947.0292969999991</v>
       </c>
       <c r="H58">
-        <v>6.8040000000000003</v>
+        <v>12.792</v>
       </c>
       <c r="I58">
-        <v>8787.9189449999994</v>
+        <v>4674.2495120000003</v>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F59">
-        <v>13.282</v>
+        <v>10.29</v>
       </c>
       <c r="G59">
-        <v>4501.8071289999998</v>
+        <v>5810.7871089999999</v>
       </c>
       <c r="H59">
-        <v>13.069000000000001</v>
+        <v>6.7939999999999996</v>
       </c>
       <c r="I59">
-        <v>4575.1777339999999</v>
+        <v>8800.8535159999992</v>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F60">
-        <v>8.73</v>
+        <v>12.419</v>
       </c>
       <c r="G60">
-        <v>6849.1411129999997</v>
+        <v>4814.6391599999997</v>
       </c>
       <c r="H60">
-        <v>6.476</v>
+        <v>6.6680000000000001</v>
       </c>
       <c r="I60">
-        <v>9233.0146480000003</v>
+        <v>8967.15625</v>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F61">
-        <v>14.792</v>
+        <v>7.3479999999999999</v>
       </c>
       <c r="G61">
-        <v>4042.2526859999998</v>
+        <v>8137.3164059999999</v>
       </c>
       <c r="H61">
-        <v>5.7149999999999999</v>
+        <v>9.1509999999999998</v>
       </c>
       <c r="I61">
-        <v>10462.466796999999</v>
+        <v>6534.0400390000004</v>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.25">
@@ -6195,142 +5824,142 @@
         <v>5000</v>
       </c>
       <c r="F62">
-        <v>6.3639999999999999</v>
+        <v>7.101</v>
       </c>
       <c r="G62">
-        <v>9395.5058590000008</v>
+        <v>8420.3632809999999</v>
       </c>
       <c r="H62">
-        <v>5.9429999999999996</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="I62">
-        <v>10061.080078000001</v>
+        <v>11949.040039</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F63">
-        <v>8.9429999999999996</v>
+        <v>9.8010000000000002</v>
       </c>
       <c r="G63">
-        <v>6686.0117190000001</v>
+        <v>6100.7041019999997</v>
       </c>
       <c r="H63">
-        <v>6.2930000000000001</v>
+        <v>6.5970000000000004</v>
       </c>
       <c r="I63">
-        <v>9501.5097659999992</v>
+        <v>9063.6650389999995</v>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F64">
-        <v>7.6079999999999997</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="G64">
-        <v>7859.2275390000004</v>
+        <v>9442.9882809999999</v>
       </c>
       <c r="H64">
-        <v>7.5090000000000003</v>
+        <v>6.7869999999999999</v>
       </c>
       <c r="I64">
-        <v>7962.8447269999997</v>
+        <v>8809.9306639999995</v>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F65">
-        <v>10.63</v>
+        <v>8.0210000000000008</v>
       </c>
       <c r="G65">
-        <v>5624.9291990000002</v>
+        <v>7454.5566410000001</v>
       </c>
       <c r="H65">
-        <v>8.7490000000000006</v>
+        <v>5.8609999999999998</v>
       </c>
       <c r="I65">
-        <v>6834.2670900000003</v>
+        <v>10201.842773</v>
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F66">
-        <v>7.7919999999999998</v>
+        <v>6.8630000000000004</v>
       </c>
       <c r="G66">
-        <v>7673.6396480000003</v>
+        <v>8712.3710940000001</v>
       </c>
       <c r="H66">
-        <v>6.2539999999999996</v>
+        <v>6.3949999999999996</v>
       </c>
       <c r="I66">
-        <v>9515.1181639999995</v>
+        <v>9349.9609380000002</v>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F67">
-        <v>5.5419999999999998</v>
+        <v>9.8520000000000003</v>
       </c>
       <c r="G67">
-        <v>10789.065430000001</v>
+        <v>6069.123047</v>
       </c>
       <c r="H67">
-        <v>6.7309999999999999</v>
+        <v>7.7140000000000004</v>
       </c>
       <c r="I67">
-        <v>8883.2265619999998</v>
+        <v>7751.2314450000003</v>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F68">
-        <v>5.3179999999999996</v>
+        <v>5.5519999999999996</v>
       </c>
       <c r="G68">
-        <v>11243.512694999999</v>
+        <v>10769.632812</v>
       </c>
       <c r="H68">
-        <v>7.4119999999999999</v>
+        <v>6.0579999999999998</v>
       </c>
       <c r="I68">
-        <v>8067.0532229999999</v>
+        <v>9870.0888670000004</v>
       </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F69">
-        <v>6.7610000000000001</v>
+        <v>5.2720000000000002</v>
       </c>
       <c r="G69">
-        <v>8843.8095699999994</v>
+        <v>11341.616211</v>
       </c>
       <c r="H69">
-        <v>5.64</v>
+        <v>6.4039999999999999</v>
       </c>
       <c r="I69">
-        <v>10601.595703000001</v>
+        <v>9336.8212889999995</v>
       </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F70">
-        <v>5.6440000000000001</v>
+        <v>4.7110000000000003</v>
       </c>
       <c r="G70">
-        <v>10594.082031</v>
+        <v>12692.209961</v>
       </c>
       <c r="H70">
-        <v>7.4829999999999997</v>
+        <v>6.8959999999999999</v>
       </c>
       <c r="I70">
-        <v>7990.5122069999998</v>
+        <v>8670.6787110000005</v>
       </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F71">
-        <v>8.0969999999999995</v>
+        <v>9.4390000000000001</v>
       </c>
       <c r="G71">
-        <v>7384.5869140000004</v>
+        <v>6334.6752930000002</v>
       </c>
       <c r="H71">
-        <v>6.9690000000000003</v>
+        <v>6.3120000000000003</v>
       </c>
       <c r="I71">
-        <v>8579.8535159999992</v>
+        <v>9472.9091800000006</v>
       </c>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.25">
@@ -6338,83 +5967,83 @@
         <v>10000</v>
       </c>
       <c r="F72">
-        <v>7.4550000000000001</v>
+        <v>9.6050000000000004</v>
       </c>
       <c r="G72">
-        <v>8020.5234380000002</v>
+        <v>6225.1953119999998</v>
       </c>
       <c r="H72">
-        <v>6.3390000000000004</v>
+        <v>5.5439999999999996</v>
       </c>
       <c r="I72">
-        <v>9432.5595699999994</v>
+        <v>10785.172852</v>
       </c>
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F73">
-        <v>8.0749999999999993</v>
+        <v>9.5020000000000007</v>
       </c>
       <c r="G73">
-        <v>7404.7060549999997</v>
+        <v>6292.6752930000002</v>
       </c>
       <c r="H73">
-        <v>5.4009999999999998</v>
+        <v>7.0039999999999996</v>
       </c>
       <c r="I73">
-        <v>11070.727539</v>
+        <v>8536.9785159999992</v>
       </c>
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F74">
-        <v>7.117</v>
+        <v>5.181</v>
       </c>
       <c r="G74">
-        <v>8401.4326170000004</v>
+        <v>11540.821289</v>
       </c>
       <c r="H74">
-        <v>4.7480000000000002</v>
+        <v>5.6449999999999996</v>
       </c>
       <c r="I74">
-        <v>12593.301758</v>
+        <v>10592.205078000001</v>
       </c>
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F75">
-        <v>8.64</v>
+        <v>5.4130000000000003</v>
       </c>
       <c r="G75">
-        <v>6920.4858400000003</v>
+        <v>11046.184569999999</v>
       </c>
       <c r="H75">
-        <v>2.0379999999999998</v>
+        <v>4.048</v>
       </c>
       <c r="I75">
-        <v>29339.056640999999</v>
+        <v>14770.999023</v>
       </c>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F76">
-        <v>8.9849999999999994</v>
+        <v>6.0919999999999996</v>
       </c>
       <c r="G76">
-        <v>6654.7583009999998</v>
+        <v>9815.0029300000006</v>
       </c>
       <c r="H76">
-        <v>6.4409999999999998</v>
+        <v>5.4130000000000003</v>
       </c>
       <c r="I76">
-        <v>9283.1855469999991</v>
+        <v>11046.184569999999</v>
       </c>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F77">
-        <v>8.67</v>
+        <v>4.6639999999999997</v>
       </c>
       <c r="G77">
         <v>6896.5395509999998</v>
       </c>
       <c r="H77">
-        <v>4.82</v>
+        <v>5.8360000000000003</v>
       </c>
       <c r="I77">
         <v>12405.186523</v>
@@ -6422,58 +6051,58 @@
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F78">
-        <v>9.3070000000000004</v>
+        <v>5.7539999999999996</v>
       </c>
       <c r="G78">
-        <v>6424.5190430000002</v>
+        <v>10391.553711</v>
       </c>
       <c r="H78">
-        <v>7.6849999999999996</v>
+        <v>4.593</v>
       </c>
       <c r="I78">
-        <v>7780.4814450000003</v>
+        <v>13018.289062</v>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F79">
-        <v>6.2709999999999999</v>
+        <v>5.6950000000000003</v>
       </c>
       <c r="G79">
-        <v>9534.8427730000003</v>
+        <v>10499.209961</v>
       </c>
       <c r="H79">
-        <v>25.026</v>
+        <v>5.367</v>
       </c>
       <c r="I79">
-        <v>2389.2353520000001</v>
+        <v>11140.860352</v>
       </c>
     </row>
     <row r="80" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F80">
-        <v>5.0549999999999997</v>
+        <v>6.0039999999999996</v>
       </c>
       <c r="G80">
-        <v>11828.487305000001</v>
+        <v>9958.8603519999997</v>
       </c>
       <c r="H80">
-        <v>7.2489999999999997</v>
+        <v>5.415</v>
       </c>
       <c r="I80">
-        <v>8248.4482420000004</v>
+        <v>11042.105469</v>
       </c>
     </row>
     <row r="81" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F81">
-        <v>9.4390000000000001</v>
+        <v>7.03</v>
       </c>
       <c r="G81">
-        <v>6334.6752930000002</v>
+        <v>8505.4052730000003</v>
       </c>
       <c r="H81">
-        <v>5.9960000000000004</v>
+        <v>5.41</v>
       </c>
       <c r="I81">
-        <v>9972.1484380000002</v>
+        <v>11052.310546999999</v>
       </c>
     </row>
   </sheetData>
